--- a/Excel/excel/MainUIBtnConfig.xlsx
+++ b/Excel/excel/MainUIBtnConfig.xlsx
@@ -128,7 +128,7 @@
     <t>ui://CommonPKG/activity_003</t>
   </si>
   <si>
-    <t>功能预告</t>
+    <t>商场</t>
   </si>
   <si>
     <t>ui://CommonPKG/activity_016</t>
@@ -326,11 +326,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -338,6 +333,11 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1158,7 +1158,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/Excel/excel/MainUIBtnConfig.xlsx
+++ b/Excel/excel/MainUIBtnConfig.xlsx
@@ -4,25 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27705" windowHeight="12975"/>
+    <workbookView windowWidth="25905" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="MainUIBtnConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -86,7 +73,7 @@
     <t>key值</t>
   </si>
   <si>
-    <t>道具名称</t>
+    <t>按钮</t>
   </si>
   <si>
     <t>底部名字</t>
@@ -98,7 +85,7 @@
     <t>ui://MainCenter/btn_hero</t>
   </si>
   <si>
-    <t>英雄_事件</t>
+    <t>英雄</t>
   </si>
   <si>
     <t>ui://MainCenter/btn_league</t>
@@ -146,7 +133,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -326,17 +313,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -791,20 +778,32 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1158,55 +1157,56 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="22.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="17.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1214,13 +1214,13 @@
       <c r="A4" s="2">
         <v>1001</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1228,13 +1228,13 @@
       <c r="A5" s="2">
         <v>1002</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1242,13 +1242,13 @@
       <c r="A6" s="2">
         <v>1003</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1256,13 +1256,13 @@
       <c r="A7" s="2">
         <v>1004</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1270,55 +1270,55 @@
       <c r="A8" s="2">
         <v>1005</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:4">
-      <c r="A9" s="5">
+      <c r="A9" s="8">
         <v>2001</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:4">
-      <c r="A10" s="5">
+      <c r="A10" s="8">
         <v>2002</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:4">
-      <c r="A11" s="5">
+      <c r="A11" s="8">
         <v>2003</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="9">
         <v>2</v>
       </c>
     </row>
